--- a/doc/Results/Resnet18_CIFAR10_PS2_ops_summery_ones1x3_ma3.5.xlsx
+++ b/doc/Results/Resnet18_CIFAR10_PS2_ops_summery_ones1x3_ma3.5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\Resnet18_CIFAR10\PatchSize2\Spatial\ops_summery_for_final_mask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform Layer" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Uniform Filters" sheetId="3" r:id="rId3"/>
     <sheet name="Max Granularity" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -896,11 +896,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="429131360"/>
-        <c:axId val="429132536"/>
+        <c:axId val="333489336"/>
+        <c:axId val="333484632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429131360"/>
+        <c:axId val="333489336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429132536"/>
+        <c:crossAx val="333484632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1006,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429132536"/>
+        <c:axId val="333484632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429131360"/>
+        <c:crossAx val="333489336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,11 +1594,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="429140376"/>
-        <c:axId val="429134888"/>
+        <c:axId val="333483064"/>
+        <c:axId val="333483456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429140376"/>
+        <c:axId val="333483064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429134888"/>
+        <c:crossAx val="333483456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1704,7 +1704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429134888"/>
+        <c:axId val="333483456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429140376"/>
+        <c:crossAx val="333483064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2089,11 +2089,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="429130968"/>
-        <c:axId val="429134104"/>
+        <c:axId val="331867496"/>
+        <c:axId val="331866320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429130968"/>
+        <c:axId val="331867496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +2205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429134104"/>
+        <c:crossAx val="331866320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2213,7 +2213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429134104"/>
+        <c:axId val="331866320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429130968"/>
+        <c:crossAx val="331867496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4437,7 +4437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
@@ -4490,7 +4490,7 @@
         <v>30.710137939453126</v>
       </c>
       <c r="E2">
-        <f>100*B2/$B$20</f>
+        <f t="shared" ref="E2:E18" si="0">100*B2/$B$20</f>
         <v>3.612957404641544</v>
       </c>
       <c r="F2">
@@ -4513,19 +4513,19 @@
         <v>65536000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">100*B3/C3</f>
+        <f t="shared" ref="D3:D18" si="1">100*B3/C3</f>
         <v>21.625588989257814</v>
       </c>
       <c r="E3">
-        <f>100*B3/$B$20</f>
+        <f t="shared" si="0"/>
         <v>2.544186939912684</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="1">ROUND(D3,2)</f>
+        <f t="shared" ref="F3:F18" si="2">ROUND(D3,2)</f>
         <v>21.63</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G20" si="2">ROUND(E3,2)</f>
+        <f t="shared" ref="G3:G18" si="3">ROUND(E3,2)</f>
         <v>2.54</v>
       </c>
     </row>
@@ -4540,19 +4540,19 @@
         <v>65536000</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>22.630487060546876</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>22.630487060546876</v>
-      </c>
-      <c r="E4">
-        <f>100*B4/$B$20</f>
         <v>2.6624102424172795</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.63</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.66</v>
       </c>
     </row>
@@ -4567,19 +4567,19 @@
         <v>65536000</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>23.342532348632812</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>23.342532348632812</v>
-      </c>
-      <c r="E5">
-        <f>100*B5/$B$20</f>
         <v>2.7461802763097425</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.34</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
     </row>
@@ -4594,19 +4594,19 @@
         <v>65536000</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9.4794067382812504</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.4794067382812504</v>
-      </c>
-      <c r="E6">
-        <f>100*B6/$B$20</f>
         <v>1.1152243221507352</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.48</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
@@ -4621,19 +4621,19 @@
         <v>32768000</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>23.748016357421875</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>23.748016357421875</v>
-      </c>
-      <c r="E7">
-        <f>100*B7/$B$20</f>
         <v>1.396942138671875</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.75</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
     </row>
@@ -4648,19 +4648,19 @@
         <v>32768000</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>24.974090576171875</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>24.974090576171875</v>
-      </c>
-      <c r="E8">
-        <f>100*B8/$B$20</f>
         <v>1.469064151539522</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.97</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
     </row>
@@ -4675,19 +4675,19 @@
         <v>32768000</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>35.550640869140622</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>35.550640869140622</v>
-      </c>
-      <c r="E9">
-        <f>100*B9/$B$20</f>
         <v>2.0912141687729777</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.549999999999997</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.09</v>
       </c>
     </row>
@@ -4702,19 +4702,19 @@
         <v>32768000</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>20.582659912109374</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>20.582659912109374</v>
-      </c>
-      <c r="E10">
-        <f>100*B10/$B$20</f>
         <v>1.2107447007123162</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.58</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.21</v>
       </c>
     </row>
@@ -4729,19 +4729,19 @@
         <v>16384000</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>26.384765625</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>26.384765625</v>
-      </c>
-      <c r="E11">
-        <f>100*B11/$B$20</f>
         <v>0.77602251838235292</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.38</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78</v>
       </c>
     </row>
@@ -4756,19 +4756,19 @@
         <v>16384000</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>33.486437988281253</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>33.486437988281253</v>
-      </c>
-      <c r="E12">
-        <f>100*B12/$B$20</f>
         <v>0.98489523494944853</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.49</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
     </row>
@@ -4783,19 +4783,19 @@
         <v>16384000</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>36.159338378906249</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>36.159338378906249</v>
-      </c>
-      <c r="E13">
-        <f>100*B13/$B$20</f>
         <v>1.0635099523207721</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.159999999999997</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.06</v>
       </c>
     </row>
@@ -4810,19 +4810,19 @@
         <v>16384000</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>30.436413574218751</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>30.436413574218751</v>
-      </c>
-      <c r="E14">
-        <f>100*B14/$B$20</f>
         <v>0.89518863453584563</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.44</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
@@ -4837,19 +4837,19 @@
         <v>8192000</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>25.594995117187501</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>25.594995117187501</v>
-      </c>
-      <c r="E15">
-        <f>100*B15/$B$20</f>
         <v>0.37639698701746321</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.59</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
     </row>
@@ -4864,19 +4864,19 @@
         <v>8192000</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>19.326635742187499</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>19.326635742187499</v>
-      </c>
-      <c r="E16">
-        <f>100*B16/$B$20</f>
         <v>0.28421523150275735</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.329999999999998</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -4891,19 +4891,19 @@
         <v>8192000</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>21.179833984375001</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>21.179833984375001</v>
-      </c>
-      <c r="E17">
-        <f>100*B17/$B$20</f>
         <v>0.31146814682904411</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.18</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31</v>
       </c>
     </row>
@@ -4918,19 +4918,19 @@
         <v>8192000</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17.403344726562501</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>17.403344726562501</v>
-      </c>
-      <c r="E18">
-        <f>100*B18/$B$20</f>
         <v>0.25593154009650737</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26</v>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>48.00240783691406</v>
       </c>
       <c r="E2">
-        <f>100*B2/$B$20</f>
+        <f t="shared" ref="E2:E18" si="0">100*B2/$B$20</f>
         <v>5.6473420984604781</v>
       </c>
       <c r="F2">
@@ -5095,19 +5095,19 @@
         <v>65536000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">100*B3/C3</f>
+        <f t="shared" ref="D3:D18" si="1">100*B3/C3</f>
         <v>23.477896118164061</v>
       </c>
       <c r="E3">
-        <f>100*B3/$B$20</f>
+        <f t="shared" si="0"/>
         <v>2.7621054256663604</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G20" si="1">ROUND(D3,2)</f>
+        <f t="shared" ref="F3:G18" si="2">ROUND(D3,2)</f>
         <v>23.48</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.76</v>
       </c>
     </row>
@@ -5122,19 +5122,19 @@
         <v>65536000</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>22.267736816406249</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>22.267736816406249</v>
-      </c>
-      <c r="E4">
-        <f>100*B4/$B$20</f>
         <v>2.6197337431066177</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.27</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.62</v>
       </c>
     </row>
@@ -5149,19 +5149,19 @@
         <v>65536000</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>21.593041992187501</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>21.593041992187501</v>
-      </c>
-      <c r="E5">
-        <f>100*B5/$B$20</f>
         <v>2.5403578814338235</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.59</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.54</v>
       </c>
     </row>
@@ -5176,19 +5176,19 @@
         <v>65536000</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9.1659637451171871</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.1659637451171871</v>
-      </c>
-      <c r="E6">
-        <f>100*B6/$B$20</f>
         <v>1.0783486758961398</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.17</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
     </row>
@@ -5203,19 +5203,19 @@
         <v>32768000</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>23.27093505859375</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>23.27093505859375</v>
-      </c>
-      <c r="E7">
-        <f>100*B7/$B$20</f>
         <v>1.3688785328584558</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.27</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.37</v>
       </c>
     </row>
@@ -5230,19 +5230,19 @@
         <v>32768000</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>22.984887695312501</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>22.984887695312501</v>
-      </c>
-      <c r="E8">
-        <f>100*B8/$B$20</f>
         <v>1.3520522173713236</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.98</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
     </row>
@@ -5257,19 +5257,19 @@
         <v>32768000</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>35.228417968750001</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>35.228417968750001</v>
-      </c>
-      <c r="E9">
-        <f>100*B9/$B$20</f>
         <v>2.0722598805147059</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.229999999999997</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
     </row>
@@ -5284,19 +5284,19 @@
         <v>32768000</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>20.098968505859375</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>20.098968505859375</v>
-      </c>
-      <c r="E10">
-        <f>100*B10/$B$20</f>
         <v>1.1822922650505514</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.100000000000001</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.18</v>
       </c>
     </row>
@@ -5311,19 +5311,19 @@
         <v>16384000</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>25.858435058593749</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>25.858435058593749</v>
-      </c>
-      <c r="E11">
-        <f>100*B11/$B$20</f>
         <v>0.76054220760569857</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.86</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
     </row>
@@ -5338,19 +5338,19 @@
         <v>16384000</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>33.109716796874999</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>33.109716796874999</v>
-      </c>
-      <c r="E12">
-        <f>100*B12/$B$20</f>
         <v>0.97381519990808818</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.11</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
     </row>
@@ -5365,19 +5365,19 @@
         <v>16384000</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>35.8382568359375</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>35.8382568359375</v>
-      </c>
-      <c r="E13">
-        <f>100*B13/$B$20</f>
         <v>1.0540663775275736</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.840000000000003</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
     </row>
@@ -5392,19 +5392,19 @@
         <v>16384000</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>30.571643066406249</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>30.571643066406249</v>
-      </c>
-      <c r="E14">
-        <f>100*B14/$B$20</f>
         <v>0.89916597254136033</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.57</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
     </row>
@@ -5419,19 +5419,19 @@
         <v>8192000</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>28.023168945312499</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>28.023168945312499</v>
-      </c>
-      <c r="E15">
-        <f>100*B15/$B$20</f>
         <v>0.41210542566636027</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.02</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41</v>
       </c>
     </row>
@@ -5446,19 +5446,19 @@
         <v>8192000</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>18.839282226562499</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>18.839282226562499</v>
-      </c>
-      <c r="E16">
-        <f>100*B16/$B$20</f>
         <v>0.27704826803768384</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.84</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -5473,19 +5473,19 @@
         <v>8192000</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>20.712573242187499</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>20.712573242187499</v>
-      </c>
-      <c r="E17">
-        <f>100*B17/$B$20</f>
         <v>0.30459666532628676</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.71</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
@@ -5500,19 +5500,19 @@
         <v>8192000</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17.163110351562501</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>17.163110351562501</v>
-      </c>
-      <c r="E18">
-        <f>100*B18/$B$20</f>
         <v>0.25239868164062501</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.16</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
         <v>30.69085693359375</v>
       </c>
       <c r="E2">
-        <f>100*B2/$B$20</f>
+        <f t="shared" ref="E2:E18" si="0">100*B2/$B$20</f>
         <v>3.6106890510110294</v>
       </c>
       <c r="F2">
@@ -5676,19 +5676,19 @@
         <v>65536000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">100*B3/C3</f>
+        <f t="shared" ref="D3:D18" si="1">100*B3/C3</f>
         <v>21.568490600585939</v>
       </c>
       <c r="E3">
-        <f>100*B3/$B$20</f>
+        <f t="shared" si="0"/>
         <v>2.5374694824218751</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G20" si="1">ROUND(D3,2)</f>
+        <f t="shared" ref="F3:G18" si="2">ROUND(D3,2)</f>
         <v>21.57</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.54</v>
       </c>
     </row>
@@ -5703,19 +5703,19 @@
         <v>65536000</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>24.550939941406249</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>24.550939941406249</v>
-      </c>
-      <c r="E4">
-        <f>100*B4/$B$20</f>
         <v>2.8883458754595588</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.55</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.89</v>
       </c>
     </row>
@@ -5730,19 +5730,19 @@
         <v>65536000</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>23.222052001953124</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>23.222052001953124</v>
-      </c>
-      <c r="E5">
-        <f>100*B5/$B$20</f>
         <v>2.7320061178768382</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.22</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
     </row>
@@ -5757,19 +5757,19 @@
         <v>65536000</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9.4584564208984379</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.4584564208984379</v>
-      </c>
-      <c r="E6">
-        <f>100*B6/$B$20</f>
         <v>1.1127595789292279</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4600000000000009</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -5784,19 +5784,19 @@
         <v>32768000</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>23.628436279296874</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>23.628436279296874</v>
-      </c>
-      <c r="E7">
-        <f>100*B7/$B$20</f>
         <v>1.3899080164292279</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.63</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.39</v>
       </c>
     </row>
@@ -5811,19 +5811,19 @@
         <v>32768000</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>23.388201904296874</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>23.388201904296874</v>
-      </c>
-      <c r="E8">
-        <f>100*B8/$B$20</f>
         <v>1.3757765826056985</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.39</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.38</v>
       </c>
     </row>
@@ -5838,19 +5838,19 @@
         <v>32768000</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>35.464886474609372</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>35.464886474609372</v>
-      </c>
-      <c r="E9">
-        <f>100*B9/$B$20</f>
         <v>2.086169792624081</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.46</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.09</v>
       </c>
     </row>
@@ -5865,19 +5865,19 @@
         <v>32768000</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>20.482354736328126</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>20.482354736328126</v>
-      </c>
-      <c r="E10">
-        <f>100*B10/$B$20</f>
         <v>1.2048443962545956</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.48</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
     </row>
@@ -5892,19 +5892,19 @@
         <v>16384000</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>26.191015624999999</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>26.191015624999999</v>
-      </c>
-      <c r="E11">
-        <f>100*B11/$B$20</f>
         <v>0.77032398897058818</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.19</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
     </row>
@@ -5919,19 +5919,19 @@
         <v>16384000</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>33.359265136718747</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>33.359265136718747</v>
-      </c>
-      <c r="E12">
-        <f>100*B12/$B$20</f>
         <v>0.98115485696231619</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.36</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98</v>
       </c>
     </row>
@@ -5946,19 +5946,19 @@
         <v>16384000</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>35.993420410156247</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>35.993420410156247</v>
-      </c>
-      <c r="E13">
-        <f>100*B13/$B$20</f>
         <v>1.0586300120634191</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.99</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.06</v>
       </c>
     </row>
@@ -5973,19 +5973,19 @@
         <v>16384000</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>30.189733886718749</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>30.189733886718749</v>
-      </c>
-      <c r="E14">
-        <f>100*B14/$B$20</f>
         <v>0.88793334960937498</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.19</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89</v>
       </c>
     </row>
@@ -6000,19 +6000,19 @@
         <v>8192000</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>26.771704101562499</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>26.771704101562499</v>
-      </c>
-      <c r="E15">
-        <f>100*B15/$B$20</f>
         <v>0.39370153090533089</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.77</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39</v>
       </c>
     </row>
@@ -6027,19 +6027,19 @@
         <v>8192000</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>22.182104492187499</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>22.182104492187499</v>
-      </c>
-      <c r="E16">
-        <f>100*B16/$B$20</f>
         <v>0.32620741900275735</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.18</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
     </row>
@@ -6054,19 +6054,19 @@
         <v>8192000</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>25.532153320312499</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>25.532153320312499</v>
-      </c>
-      <c r="E17">
-        <f>100*B17/$B$20</f>
         <v>0.37547284294577205</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.53</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
     </row>
@@ -6081,19 +6081,19 @@
         <v>8192000</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17.093115234374999</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>17.093115234374999</v>
-      </c>
-      <c r="E18">
-        <f>100*B18/$B$20</f>
         <v>0.25136934168198527</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.09</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -6234,7 +6234,7 @@
         <v>30.671411132812501</v>
       </c>
       <c r="E2">
-        <f>100*B2/$B$20</f>
+        <f t="shared" ref="E2:E18" si="0">100*B2/$B$20</f>
         <v>3.6084013097426473</v>
       </c>
       <c r="F2">
@@ -6257,19 +6257,19 @@
         <v>65536000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">100*B3/C3</f>
+        <f t="shared" ref="D3:D18" si="1">100*B3/C3</f>
         <v>21.466806030273439</v>
       </c>
       <c r="E3">
-        <f>100*B3/$B$20</f>
+        <f t="shared" si="0"/>
         <v>2.5255065917968751</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G20" si="1">ROUND(D3,2)</f>
+        <f t="shared" ref="F3:G18" si="2">ROUND(D3,2)</f>
         <v>21.47</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -6284,19 +6284,19 @@
         <v>65536000</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>22.253091430664064</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>22.253091430664064</v>
-      </c>
-      <c r="E4">
-        <f>100*B4/$B$20</f>
         <v>2.6180107565487134</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.25</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.62</v>
       </c>
     </row>
@@ -6311,19 +6311,19 @@
         <v>65536000</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>21.517922973632814</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>21.517922973632814</v>
-      </c>
-      <c r="E5">
-        <f>100*B5/$B$20</f>
         <v>2.5315203498391545</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.52</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -6338,19 +6338,19 @@
         <v>65536000</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9.1308685302734371</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.1308685302734371</v>
-      </c>
-      <c r="E6">
-        <f>100*B6/$B$20</f>
         <v>1.0742198270909926</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1300000000000008</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.07</v>
       </c>
     </row>
@@ -6365,19 +6365,19 @@
         <v>32768000</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>23.179162597656251</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>23.179162597656251</v>
-      </c>
-      <c r="E7">
-        <f>100*B7/$B$20</f>
         <v>1.3634801528033089</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.18</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.36</v>
       </c>
     </row>
@@ -6392,19 +6392,19 @@
         <v>32768000</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>24.203930664062501</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>24.203930664062501</v>
-      </c>
-      <c r="E8">
-        <f>100*B8/$B$20</f>
         <v>1.4237606272977941</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
     </row>
@@ -6419,19 +6419,19 @@
         <v>32768000</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>35.051104736328128</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>35.051104736328128</v>
-      </c>
-      <c r="E9">
-        <f>100*B9/$B$20</f>
         <v>2.0618296903722428</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.049999999999997</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.06</v>
       </c>
     </row>
@@ -6446,19 +6446,19 @@
         <v>32768000</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>20.012109375000001</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>20.012109375000001</v>
-      </c>
-      <c r="E10">
-        <f>100*B10/$B$20</f>
         <v>1.1771829044117648</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.010000000000002</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.18</v>
       </c>
     </row>
@@ -6473,19 +6473,19 @@
         <v>16384000</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>26.643823242187501</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>26.643823242187501</v>
-      </c>
-      <c r="E11">
-        <f>100*B11/$B$20</f>
         <v>0.78364186006433822</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.64</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
     </row>
@@ -6500,19 +6500,19 @@
         <v>16384000</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>33.634960937499997</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>33.634960937499997</v>
-      </c>
-      <c r="E12">
-        <f>100*B12/$B$20</f>
         <v>0.98926355698529411</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.630000000000003</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
     </row>
@@ -6527,19 +6527,19 @@
         <v>16384000</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>37.514172363281247</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>37.514172363281247</v>
-      </c>
-      <c r="E13">
-        <f>100*B13/$B$20</f>
         <v>1.1033580106847427</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.51</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -6554,19 +6554,19 @@
         <v>16384000</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>33.01165771484375</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>33.01165771484375</v>
-      </c>
-      <c r="E14">
-        <f>100*B14/$B$20</f>
         <v>0.97093110926011028</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.01</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
     </row>
@@ -6581,19 +6581,19 @@
         <v>8192000</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>27.951513671874999</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>27.951513671874999</v>
-      </c>
-      <c r="E15">
-        <f>100*B15/$B$20</f>
         <v>0.41105167164522061</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.95</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41</v>
       </c>
     </row>
@@ -6608,19 +6608,19 @@
         <v>8192000</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>17.184838867187501</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>17.184838867187501</v>
-      </c>
-      <c r="E16">
-        <f>100*B16/$B$20</f>
         <v>0.25271821863511029</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.18</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -6635,19 +6635,19 @@
         <v>8192000</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>18.382885742187501</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>18.382885742187501</v>
-      </c>
-      <c r="E17">
-        <f>100*B17/$B$20</f>
         <v>0.27033655503216913</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.38</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
     </row>
@@ -6662,19 +6662,19 @@
         <v>8192000</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>16.421557617187499</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>16.421557617187499</v>
-      </c>
-      <c r="E18">
-        <f>100*B18/$B$20</f>
         <v>0.2414934943704044</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.420000000000002</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>

--- a/doc/Results/Resnet18_CIFAR10_PS2_ops_summery_ones1x3_ma3.5.xlsx
+++ b/doc/Results/Resnet18_CIFAR10_PS2_ops_summery_ones1x3_ma3.5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform Layer" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Uniform Filters" sheetId="3" r:id="rId3"/>
     <sheet name="Max Granularity" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +626,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -800,6 +800,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EB2-4B62-A743-DDB397F95D81}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -885,6 +890,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EB2-4B62-A743-DDB397F95D81}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1202,7 +1212,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1222,41 +1232,37 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>% of saved operations </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>for each layer in the final mask</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1274,13 +1280,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1312,13 +1324,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1330,17 +1371,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1367,9 +1407,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1439,6 +1479,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2A4-4EBF-BFCD-5049982C4BD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1455,13 +1500,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1473,17 +1547,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1510,9 +1583,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1582,6 +1655,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2A4-4EBF-BFCD-5049982C4BD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -1592,8 +1670,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="333483064"/>
         <c:axId val="333483456"/>
       </c:barChart>
@@ -1611,11 +1689,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1644,11 +1721,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1660,16 +1736,16 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1681,11 +1757,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1714,9 +1789,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1731,11 +1806,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1764,11 +1838,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1781,19 +1854,13 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1804,9 +1871,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1830,7 +1896,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1847,9 +1913,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1866,17 +1931,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1899,7 +1975,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2078,6 +2154,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3902-44DB-8056-373C45245A98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3005,79 +3086,81 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3093,14 +3176,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3109,45 +3184,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3159,17 +3224,14 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3178,15 +3240,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3202,17 +3264,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3224,7 +3285,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3235,9 +3296,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3248,16 +3309,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3266,14 +3328,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3285,7 +3346,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3293,14 +3354,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3312,14 +3373,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3330,16 +3391,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3348,14 +3410,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3366,27 +3428,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3394,17 +3455,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3417,14 +3477,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3436,12 +3496,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3450,14 +3517,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3466,19 +3532,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3486,9 +3551,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3499,22 +3564,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3522,7 +3575,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4437,22 +4490,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4502,7 +4555,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4529,7 +4582,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4556,7 +4609,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4583,7 +4636,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4610,7 +4663,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4637,7 +4690,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4664,7 +4717,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4691,7 +4744,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4718,7 +4771,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4745,7 +4798,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4772,7 +4825,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4799,7 +4852,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4826,7 +4879,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4853,7 +4906,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4880,7 +4933,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4907,7 +4960,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4934,7 +4987,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4943,7 +4996,7 @@
         <v>23.796552590762861</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4952,7 +5005,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4960,7 +5013,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -4980,7 +5033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4988,7 +5041,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4996,7 +5049,7 @@
         <v>23.669</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5004,7 +5057,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5023,18 +5076,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5057,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5084,7 +5137,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5111,7 +5164,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5138,7 +5191,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5165,7 +5218,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5192,7 +5245,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5219,7 +5272,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5246,7 +5299,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5273,7 +5326,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5300,7 +5353,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5327,7 +5380,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5354,7 +5407,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5381,7 +5434,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5408,7 +5461,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5435,7 +5488,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5462,7 +5515,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5489,7 +5542,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5516,7 +5569,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5525,7 +5578,7 @@
         <v>25.557109518612137</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -5534,7 +5587,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5542,7 +5595,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5562,7 +5615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5570,7 +5623,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -5578,7 +5631,7 @@
         <v>25.321999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5586,7 +5639,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5604,18 +5657,18 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5638,7 +5691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5665,7 +5718,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5692,7 +5745,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5719,7 +5772,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5746,7 +5799,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5773,7 +5826,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5800,7 +5853,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5827,7 +5880,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5854,7 +5907,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5881,7 +5934,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5908,7 +5961,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5935,7 +5988,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5962,7 +6015,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5989,7 +6042,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6016,7 +6069,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6043,7 +6096,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6070,7 +6123,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6097,7 +6150,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6106,7 +6159,7 @@
         <v>23.982762235753679</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6115,7 +6168,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6123,7 +6176,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -6143,7 +6196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +6204,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -6159,7 +6212,7 @@
         <v>23.712</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -6167,7 +6220,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -6185,18 +6238,18 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6219,7 +6272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6246,7 +6299,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6273,7 +6326,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6300,7 +6353,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6327,7 +6380,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6354,7 +6407,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6381,7 +6434,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6408,7 +6461,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6435,7 +6488,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6462,7 +6515,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6489,7 +6542,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6516,7 +6569,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6543,7 +6596,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6570,7 +6623,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6597,7 +6650,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6624,7 +6677,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6651,7 +6704,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6678,7 +6731,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6687,7 +6740,7 @@
         <v>23.40670668658089</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6696,7 +6749,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6704,7 +6757,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -6724,7 +6777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6732,7 +6785,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -6740,7 +6793,7 @@
         <v>23.242999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -6748,7 +6801,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>

--- a/doc/Results/Resnet18_CIFAR10_PS2_ops_summery_ones1x3_ma3.5.xlsx
+++ b/doc/Results/Resnet18_CIFAR10_PS2_ops_summery_ones1x3_ma3.5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform Layer" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +626,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -800,7 +800,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EB2-4B62-A743-DDB397F95D81}"/>
             </c:ext>
@@ -890,7 +890,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EB2-4B62-A743-DDB397F95D81}"/>
             </c:ext>
@@ -906,11 +906,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="333489336"/>
-        <c:axId val="333484632"/>
+        <c:axId val="346210104"/>
+        <c:axId val="346211672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="333489336"/>
+        <c:axId val="346210104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333484632"/>
+        <c:crossAx val="346211672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333484632"/>
+        <c:axId val="346211672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333489336"/>
+        <c:crossAx val="346210104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1399,7 +1399,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1479,7 +1479,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A2A4-4EBF-BFCD-5049982C4BD5}"/>
             </c:ext>
@@ -1575,7 +1575,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1655,7 +1655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A2A4-4EBF-BFCD-5049982C4BD5}"/>
             </c:ext>
@@ -1672,11 +1672,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="333483064"/>
-        <c:axId val="333483456"/>
+        <c:axId val="346211280"/>
+        <c:axId val="346204616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="333483064"/>
+        <c:axId val="346211280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333483456"/>
+        <c:crossAx val="346204616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1779,7 +1779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333483456"/>
+        <c:axId val="346204616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333483064"/>
+        <c:crossAx val="346211280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1975,7 +1975,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2154,7 +2154,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3902-44DB-8056-373C45245A98}"/>
             </c:ext>
@@ -2170,11 +2170,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="331867496"/>
-        <c:axId val="331866320"/>
+        <c:axId val="346206184"/>
+        <c:axId val="171723960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331867496"/>
+        <c:axId val="346206184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331866320"/>
+        <c:crossAx val="171723960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2294,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331866320"/>
+        <c:axId val="171723960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331867496"/>
+        <c:crossAx val="346206184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2439,6 +2439,769 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% of saved operations </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>for each layer in the final mask</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Uniform Patch'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% saved in layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Uniform Patch'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2A4-4EBF-BFCD-5049982C4BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Uniform Patch'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% saved in network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Uniform Patch'!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2A4-4EBF-BFCD-5049982C4BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="471549832"/>
+        <c:axId val="471551008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471549832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>layer number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471551008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471551008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>operations saved [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471549832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2580,6 +3343,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4126,6 +4929,502 @@
         </a:bgClr>
       </a:pattFill>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4217,6 +5516,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4490,22 +5826,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +5864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4555,7 +5891,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4582,7 +5918,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4609,7 +5945,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4636,7 +5972,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4663,7 +5999,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4690,7 +6026,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4717,7 +6053,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4744,7 +6080,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4771,7 +6107,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4798,7 +6134,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4825,7 +6161,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4852,7 +6188,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4879,7 +6215,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4906,7 +6242,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4933,7 +6269,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4960,7 +6296,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4987,7 +6323,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4996,7 +6332,7 @@
         <v>23.796552590762861</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +6341,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5013,7 +6349,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5033,7 +6369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5041,7 +6377,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +6385,7 @@
         <v>23.669</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5057,7 +6393,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5072,22 +6408,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5110,7 +6446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5137,7 +6473,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5164,7 +6500,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5191,7 +6527,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5218,7 +6554,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5245,7 +6581,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5272,7 +6608,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5299,7 +6635,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5326,7 +6662,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5353,7 +6689,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5380,7 +6716,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5407,7 +6743,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5434,7 +6770,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5461,7 +6797,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5488,7 +6824,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5515,7 +6851,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5542,7 +6878,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5569,7 +6905,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5578,7 +6914,7 @@
         <v>25.557109518612137</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -5587,7 +6923,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5595,7 +6931,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5615,7 +6951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5623,7 +6959,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -5631,7 +6967,7 @@
         <v>25.321999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5639,13 +6975,14 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5657,18 +6994,18 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5691,7 +7028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5718,7 +7055,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5745,7 +7082,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5772,7 +7109,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5799,7 +7136,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5826,7 +7163,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5853,7 +7190,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5880,7 +7217,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5907,7 +7244,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5934,7 +7271,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5961,7 +7298,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5988,7 +7325,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6015,7 +7352,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6042,7 +7379,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6069,7 +7406,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6096,7 +7433,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6123,7 +7460,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6150,7 +7487,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6159,7 +7496,7 @@
         <v>23.982762235753679</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +7505,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6176,7 +7513,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -6196,7 +7533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6204,7 +7541,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +7549,7 @@
         <v>23.712</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +7557,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -6238,18 +7575,18 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6272,7 +7609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6299,7 +7636,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6326,7 +7663,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6353,7 +7690,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6380,7 +7717,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6407,7 +7744,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6434,7 +7771,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6461,7 +7798,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6488,7 +7825,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6515,7 +7852,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6542,7 +7879,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6569,7 +7906,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6596,7 +7933,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6623,7 +7960,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6650,7 +7987,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6677,7 +8014,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6704,7 +8041,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6731,7 +8068,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6740,7 +8077,7 @@
         <v>23.40670668658089</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -6749,7 +8086,7 @@
         <v>557056000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6757,7 +8094,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -6777,7 +8114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6785,7 +8122,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -6793,7 +8130,7 @@
         <v>23.242999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -6801,7 +8138,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
